--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="5840" windowWidth="28800" windowHeight="20440"/>
+    <workbookView xWindow="980" yWindow="2560" windowWidth="28800" windowHeight="20440"/>
   </bookViews>
   <sheets>
     <sheet name="Product Inventory" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A45"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -1,186 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkovner/Dropbox/Coding/Extensions/ExtensionsSamples/Inventory Management/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="980" yWindow="2560" windowWidth="28800" windowHeight="20440"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false" codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Product Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Canon imageCLASS 2200 Advanced Copier</t>
-  </si>
-  <si>
-    <t>Fellowes PB500 Electric Punch Plastic Comb Binding Machine with Manual Bind</t>
-  </si>
-  <si>
-    <t>Cisco TelePresence System EX90 Videoconferencing Unit</t>
-  </si>
-  <si>
-    <t>HON 5400 Series Task Chairs for Big and Tall</t>
-  </si>
-  <si>
-    <t>GBC DocuBind TL300 Electric Binding System</t>
-  </si>
-  <si>
-    <t>GBC Ibimaster 500 Manual ProClick Binding System</t>
-  </si>
-  <si>
-    <t>HP Designjet T520 Inkjet Large Format Printer - 24" Color</t>
-  </si>
-  <si>
-    <t>GBC DocuBind P400 Electric Binding System</t>
-  </si>
-  <si>
-    <t>High Speed Automatic Electric Letter Opener</t>
-  </si>
-  <si>
-    <t>Lexmark MX611dhe Monochrome Laser Printer</t>
-  </si>
-  <si>
-    <t>Hewlett Packard LaserJet 3310 Copier</t>
-  </si>
-  <si>
-    <t>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</t>
-  </si>
-  <si>
-    <t>Martin Yale Chadless Opener Electric Letter Opener</t>
-  </si>
-  <si>
-    <t>3D Systems Cube Printer, 2nd Generation, Magenta</t>
-  </si>
-  <si>
-    <t>Ibico EPK-21 Electric Binding System</t>
-  </si>
-  <si>
-    <t>Apple iPhone 5</t>
-  </si>
-  <si>
-    <t>Bretford Rectangular Conference Table Tops</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Mega 6.3</t>
-  </si>
-  <si>
-    <t>Canon PC1060 Personal Laser Copier</t>
-  </si>
-  <si>
-    <t>Honeywell Enviracaire Portable HEPA Air Cleaner for 17' x 22' Room</t>
-  </si>
-  <si>
-    <t>Cubify CubeX 3D Printer Double Head Print</t>
-  </si>
-  <si>
-    <t>DMI Eclipse Executive Suite Bookcases</t>
-  </si>
-  <si>
-    <t>Tennsco 6- and 18-Compartment Lockers</t>
-  </si>
-  <si>
-    <t>Plantronics CS510 - Over-the-Head monaural Wireless Headset System</t>
-  </si>
-  <si>
-    <t>Global Troy Executive Leather Low-Back Tilter</t>
-  </si>
-  <si>
-    <t>Logitech P710e Mobile Speakerphone</t>
-  </si>
-  <si>
-    <t>Chromcraft Bull-Nose Wood Oval Conference Tables &amp; Bases</t>
-  </si>
-  <si>
-    <t>SAFCO Arco Folding Chair</t>
-  </si>
-  <si>
-    <t>Plantronics Savi W720 Multi-Device Wireless Headset System</t>
-  </si>
-  <si>
-    <t>Hon Deluxe Fabric Upholstered Stacking Chairs, Rounded Back</t>
-  </si>
-  <si>
-    <t>Global Deluxe High-Back Manager's Chair</t>
-  </si>
-  <si>
-    <t>GuestStacker Chair with Chrome Finish Legs</t>
-  </si>
-  <si>
-    <t>Hon 4070 Series Pagoda Armless Upholstered Stacking Chairs</t>
-  </si>
-  <si>
-    <t>Tennsco Double-Tier Lockers</t>
-  </si>
-  <si>
-    <t>Hot File 7-Pocket, Floor Stand</t>
-  </si>
-  <si>
-    <t>Tennsco Single-Tier Lockers</t>
-  </si>
-  <si>
-    <t>Wilson Electronics DB Pro Signal Booster</t>
-  </si>
-  <si>
-    <t>Hewlett Packard 610 Color Digital Copier / Printer</t>
-  </si>
-  <si>
-    <t>Okidata MB760 Printer</t>
-  </si>
-  <si>
-    <t>Bush Advantage Collection Racetrack Conference Table</t>
-  </si>
-  <si>
-    <t>Ativa V4110MDD Micro-Cut Shredder</t>
-  </si>
-  <si>
-    <t>Hon 4700 Series Mobuis Mid-Back Task Chairs with Adjustable Arms</t>
-  </si>
-  <si>
-    <t>Global Commerce Series High-Back Swivel/Tilt Chairs</t>
-  </si>
-  <si>
-    <t>Canon Imageclass D680 Copier / Fax</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>RowID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,23 +43,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -240,44 +65,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,31 +130,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -357,23 +165,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,220 +176,271 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Product Inventory"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>RowID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Ordered</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <v>Canon imageCLASS 2200 Advanced Copier</v>
+      </c>
+      <c r="C2">
+        <v>51100</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>51100</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" t="str">
+        <v>Fellowes PB500 Electric Punch Plastic Comb Binding Machine with Manual Bind</v>
+      </c>
+      <c r="C3">
         <v>25928</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" t="str">
+        <v>Cisco TelePresence System EX90 Videoconferencing Unit</v>
+      </c>
+      <c r="C4">
         <v>22638</v>
       </c>
       <c r="D4">
@@ -608,14 +450,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" t="str">
+        <v>HON 5400 Series Task Chairs for Big and Tall</v>
+      </c>
+      <c r="C5">
         <v>21871</v>
       </c>
       <c r="D5">
@@ -625,14 +467,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" t="str">
+        <v>GBC DocuBind TL300 Electric Binding System</v>
+      </c>
+      <c r="C6">
         <v>19823</v>
       </c>
       <c r="D6">
@@ -642,14 +484,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" t="str">
+        <v>GBC Ibimaster 500 Manual ProClick Binding System</v>
+      </c>
+      <c r="C7">
         <v>19025</v>
       </c>
       <c r="D7">
@@ -659,14 +501,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" t="str">
+        <v>HP Designjet T520 Inkjet Large Format Printer - 24" Color</v>
+      </c>
+      <c r="C8">
         <v>18375</v>
       </c>
       <c r="D8">
@@ -676,31 +518,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" t="str">
+        <v>GBC DocuBind P400 Electric Binding System</v>
+      </c>
+      <c r="C9">
         <v>17965</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" t="str">
+        <v>High Speed Automatic Electric Letter Opener</v>
+      </c>
+      <c r="C10">
         <v>17030</v>
       </c>
       <c r="D10">
@@ -710,14 +552,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" t="str">
+        <v>Lexmark MX611dhe Monochrome Laser Printer</v>
+      </c>
+      <c r="C11">
         <v>16830</v>
       </c>
       <c r="D11">
@@ -727,14 +569,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" t="str">
+        <v>Hewlett Packard LaserJet 3310 Copier</v>
+      </c>
+      <c r="C12">
         <v>15960</v>
       </c>
       <c r="D12">
@@ -744,14 +586,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" t="str">
+        <v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</v>
+      </c>
+      <c r="C13">
         <v>15611</v>
       </c>
       <c r="D13">
@@ -761,14 +603,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" t="str">
+        <v>Martin Yale Chadless Opener Electric Letter Opener</v>
+      </c>
+      <c r="C14">
         <v>14991</v>
       </c>
       <c r="D14">
@@ -778,14 +620,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" t="str">
+        <v>3D Systems Cube Printer, 2nd Generation, Magenta</v>
+      </c>
+      <c r="C15">
         <v>14300</v>
       </c>
       <c r="D15">
@@ -795,14 +637,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" t="str">
+        <v>Ibico EPK-21 Electric Binding System</v>
+      </c>
+      <c r="C16">
         <v>13986</v>
       </c>
       <c r="D16">
@@ -812,14 +654,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" t="str">
+        <v>Apple iPhone 5</v>
+      </c>
+      <c r="C17">
         <v>12997</v>
       </c>
       <c r="D17">
@@ -829,14 +671,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" t="str">
+        <v>Bretford Rectangular Conference Table Tops</v>
+      </c>
+      <c r="C18">
         <v>12469</v>
       </c>
       <c r="D18">
@@ -846,14 +688,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" t="str">
+        <v>Samsung Galaxy Mega 6.3</v>
+      </c>
+      <c r="C19">
         <v>12012</v>
       </c>
       <c r="D19">
@@ -863,14 +705,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" t="str">
+        <v>Canon PC1060 Personal Laser Copier</v>
+      </c>
+      <c r="C20">
         <v>11620</v>
       </c>
       <c r="D20">
@@ -880,14 +722,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" t="str">
+        <v>Honeywell Enviracaire Portable HEPA Air Cleaner for 17' x 22' Room</v>
+      </c>
+      <c r="C21">
         <v>11304</v>
       </c>
       <c r="D21">
@@ -897,14 +739,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" t="str">
+        <v>Cubify CubeX 3D Printer Double Head Print</v>
+      </c>
+      <c r="C22">
         <v>11100</v>
       </c>
       <c r="D22">
@@ -914,14 +756,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" t="str">
+        <v>DMI Eclipse Executive Suite Bookcases</v>
+      </c>
+      <c r="C23">
         <v>11047</v>
       </c>
       <c r="D23">
@@ -931,14 +773,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" t="str">
+        <v>Tennsco 6- and 18-Compartment Lockers</v>
+      </c>
+      <c r="C24">
         <v>10925</v>
       </c>
       <c r="D24">
@@ -948,14 +790,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" t="str">
+        <v>Plantronics CS510 - Over-the-Head monaural Wireless Headset System</v>
+      </c>
+      <c r="C25">
         <v>10822</v>
       </c>
       <c r="D25">
@@ -965,14 +807,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" t="str">
+        <v>Global Troy Executive Leather Low-Back Tilter</v>
+      </c>
+      <c r="C26">
         <v>10571</v>
       </c>
       <c r="D26">
@@ -982,14 +824,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" t="str">
+        <v>Logitech P710e Mobile Speakerphone</v>
+      </c>
+      <c r="C27">
         <v>10197</v>
       </c>
       <c r="D27">
@@ -999,14 +841,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" t="str">
+        <v>Chromcraft Bull-Nose Wood Oval Conference Tables &amp; Bases</v>
+      </c>
+      <c r="C28">
         <v>9918</v>
       </c>
       <c r="D28">
@@ -1016,14 +858,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" t="str">
+        <v>SAFCO Arco Folding Chair</v>
+      </c>
+      <c r="C29">
         <v>9501</v>
       </c>
       <c r="D29">
@@ -1033,14 +875,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" t="str">
+        <v>Plantronics Savi W720 Multi-Device Wireless Headset System</v>
+      </c>
+      <c r="C30">
         <v>9367</v>
       </c>
       <c r="D30">
@@ -1050,14 +892,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" t="str">
+        <v>Hon Deluxe Fabric Upholstered Stacking Chairs, Rounded Back</v>
+      </c>
+      <c r="C31">
         <v>9271</v>
       </c>
       <c r="D31">
@@ -1067,14 +909,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" t="str">
+        <v>Global Deluxe High-Back Manager's Chair</v>
+      </c>
+      <c r="C32">
         <v>8665</v>
       </c>
       <c r="D32">
@@ -1084,14 +926,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" t="str">
+        <v>GuestStacker Chair with Chrome Finish Legs</v>
+      </c>
+      <c r="C33">
         <v>8550</v>
       </c>
       <c r="D33">
@@ -1101,14 +943,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" t="str">
+        <v>Hon 4070 Series Pagoda Armless Upholstered Stacking Chairs</v>
+      </c>
+      <c r="C34">
         <v>8431</v>
       </c>
       <c r="D34">
@@ -1118,14 +960,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" t="str">
+        <v>Tennsco Double-Tier Lockers</v>
+      </c>
+      <c r="C35">
         <v>8371</v>
       </c>
       <c r="D35">
@@ -1135,14 +977,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" t="str">
+        <v>Hot File 7-Pocket, Floor Stand</v>
+      </c>
+      <c r="C36">
         <v>8138</v>
       </c>
       <c r="D36">
@@ -1152,14 +994,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" t="str">
+        <v>Tennsco Single-Tier Lockers</v>
+      </c>
+      <c r="C37">
         <v>8032</v>
       </c>
       <c r="D37">
@@ -1169,14 +1011,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" t="str">
+        <v>Wilson Electronics DB Pro Signal Booster</v>
+      </c>
+      <c r="C38">
         <v>8019</v>
       </c>
       <c r="D38">
@@ -1186,14 +1028,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" t="str">
+        <v>Hewlett Packard 610 Color Digital Copier / Printer</v>
+      </c>
+      <c r="C39">
         <v>8000</v>
       </c>
       <c r="D39">
@@ -1203,14 +1045,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B40" t="str">
+        <v>Okidata MB760 Printer</v>
+      </c>
+      <c r="C40">
         <v>7834</v>
       </c>
       <c r="D40">
@@ -1220,14 +1062,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" t="str">
+        <v>Bush Advantage Collection Racetrack Conference Table</v>
+      </c>
+      <c r="C41">
         <v>7763</v>
       </c>
       <c r="D41">
@@ -1237,14 +1079,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42" t="str">
+        <v>Ativa V4110MDD Micro-Cut Shredder</v>
+      </c>
+      <c r="C42">
         <v>7700</v>
       </c>
       <c r="D42">
@@ -1254,14 +1096,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" t="str">
+        <v>Hon 4700 Series Mobuis Mid-Back Task Chairs with Adjustable Arms</v>
+      </c>
+      <c r="C43">
         <v>7582</v>
       </c>
       <c r="D43">
@@ -1271,14 +1113,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" t="str">
+        <v>Global Commerce Series High-Back Swivel/Tilt Chairs</v>
+      </c>
+      <c r="C44">
         <v>7580</v>
       </c>
       <c r="D44">
@@ -1288,14 +1130,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45" t="str">
+        <v>Canon Imageclass D680 Copier / Fax</v>
+      </c>
+      <c r="C45">
         <v>7560</v>
       </c>
       <c r="D45">
